--- a/training/Vy/report review/Add2Num_High-level-requirement_v1.1_Review_TruongTranVy_20181221.xlsx
+++ b/training/Vy/report review/Add2Num_High-level-requirement_v1.1_Review_TruongTranVy_20181221.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22956" windowHeight="10788" tabRatio="705" activeTab="1"/>
+    <workbookView windowWidth="22956" windowHeight="10740" tabRatio="705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <r>
       <rPr>
@@ -244,7 +244,7 @@
     <t>Unit Testing chưa đảm bảo Coverage đạt 100%</t>
   </si>
   <si>
-    <t>đã coverge 100%</t>
+    <t>have not converage 100%</t>
   </si>
   <si>
     <t>Source code của lớp MyBigNumber phải tuân thủ Coding convention.</t>
@@ -321,10 +321,19 @@
     <t>Chương trình chạy dạy dưới dạng web, nhập liệu đơn giản, xuất kết quả ra màn hình web dùng JSP, Servlet, và các thư viện khác nếu cần.</t>
   </si>
   <si>
+    <t xml:space="preserve">have not coveraged 100%
+at line 23 ,54 , 73  </t>
+  </si>
+  <si>
     <t></t>
   </si>
   <si>
     <t>Chương trình chạy dạy dưới dạng web, nhập liệu đơn giản, xuất kết quả ra màn hình web dùng SpringMVC, và các thư viện khác nếu cần.</t>
+  </si>
+  <si>
+    <t>at line 73 if the condition do not  happen at line 75 will return
+at line 54 value2 will get all orther variable at line 58
+at line 23 can not be null , because sum run then StepResult will get data;</t>
   </si>
   <si>
     <t>@@ -379,13 +388,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="#."/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="177" formatCode="#."/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -521,6 +530,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
@@ -529,18 +569,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="20"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -553,26 +638,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
+      <color indexed="52"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -580,63 +646,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -680,8 +689,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="31"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="21"/>
       </patternFill>
     </fill>
     <fill>
@@ -692,14 +737,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="21"/>
+        <fgColor indexed="10"/>
+        <bgColor indexed="60"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="22"/>
+        <fgColor indexed="52"/>
+        <bgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="29"/>
       </patternFill>
     </fill>
     <fill>
@@ -710,20 +779,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="20"/>
-        <bgColor indexed="36"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="40"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
@@ -734,32 +791,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="23"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="24"/>
+        <fgColor indexed="62"/>
+        <bgColor indexed="56"/>
       </patternFill>
     </fill>
     <fill>
@@ -770,38 +803,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="9"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="23"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="21"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="56"/>
       </patternFill>
     </fill>
   </fills>
@@ -1183,46 +1192,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
+      <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,17 +1216,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="62"/>
       </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,8 +1245,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,157 +1288,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1489,7 +1498,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1640,80 +1649,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="38" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="30" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
@@ -1721,48 +1730,48 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="40% - Accent1" xfId="2"/>
-    <cellStyle name="20% - Accent3" xfId="3"/>
+    <cellStyle name="20% - Accent3" xfId="1"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="40% - Accent1" xfId="3"/>
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Comma[0]" xfId="5" builtinId="6"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="20% - Accent1" xfId="7"/>
-    <cellStyle name="Calculation" xfId="8"/>
+    <cellStyle name="Calculation" xfId="7"/>
+    <cellStyle name="20% - Accent1" xfId="8"/>
     <cellStyle name="Normal_RS-5_8_メニュー階層図_輸配送管理_20060926" xfId="9"/>
     <cellStyle name="Currency[0]" xfId="10" builtinId="7"/>
     <cellStyle name="20% - Accent2" xfId="11"/>
     <cellStyle name="20% - Accent4" xfId="12"/>
-    <cellStyle name="20% - Accent5" xfId="13"/>
+    <cellStyle name="Normal 2" xfId="13"/>
     <cellStyle name="60% - Accent1" xfId="14"/>
-    <cellStyle name="Normal 2" xfId="15"/>
-    <cellStyle name="20% - Accent6" xfId="16"/>
-    <cellStyle name="60% - Accent2" xfId="17"/>
-    <cellStyle name="40% - Accent2" xfId="18"/>
-    <cellStyle name="Title" xfId="19"/>
-    <cellStyle name="40% - Accent3" xfId="20"/>
-    <cellStyle name="Warning Text" xfId="21"/>
+    <cellStyle name="20% - Accent5" xfId="15"/>
+    <cellStyle name="60% - Accent2" xfId="16"/>
+    <cellStyle name="20% - Accent6" xfId="17"/>
+    <cellStyle name="Title" xfId="18"/>
+    <cellStyle name="40% - Accent2" xfId="19"/>
+    <cellStyle name="Warning Text" xfId="20"/>
+    <cellStyle name="40% - Accent3" xfId="21"/>
     <cellStyle name="40% - Accent4" xfId="22"/>
     <cellStyle name="40% - Accent5" xfId="23"/>
     <cellStyle name="40% - Accent6" xfId="24"/>
-    <cellStyle name="60% - Accent3" xfId="25"/>
+    <cellStyle name="Output" xfId="25"/>
     <cellStyle name="Good" xfId="26"/>
-    <cellStyle name="Output" xfId="27"/>
+    <cellStyle name="60% - Accent3" xfId="27"/>
     <cellStyle name="60% - Accent4" xfId="28"/>
-    <cellStyle name="60% - Accent5" xfId="29"/>
-    <cellStyle name="Normal 6" xfId="30"/>
+    <cellStyle name="Normal 6" xfId="29"/>
+    <cellStyle name="60% - Accent5" xfId="30"/>
     <cellStyle name="60% - Accent6" xfId="31"/>
     <cellStyle name="Accent1" xfId="32"/>
     <cellStyle name="Accent2" xfId="33"/>
     <cellStyle name="Accent3" xfId="34"/>
     <cellStyle name="Accent4" xfId="35"/>
     <cellStyle name="Accent5" xfId="36"/>
-    <cellStyle name="Accent6" xfId="37"/>
-    <cellStyle name="Normal_KYUDEN-PIMS_EstimateWBS_v0.4" xfId="38"/>
+    <cellStyle name="Normal_KYUDEN-PIMS_EstimateWBS_v0.4" xfId="37"/>
+    <cellStyle name="Accent6" xfId="38"/>
     <cellStyle name="Bad" xfId="39"/>
-    <cellStyle name="Check Cell" xfId="40"/>
+    <cellStyle name="Note" xfId="40"/>
     <cellStyle name="Heading 2" xfId="41"/>
-    <cellStyle name="Note" xfId="42"/>
+    <cellStyle name="Check Cell" xfId="42"/>
     <cellStyle name="Explanatory Text" xfId="43"/>
     <cellStyle name="Heading 1" xfId="44"/>
     <cellStyle name="Heading 3" xfId="45"/>
@@ -1798,6 +1807,10 @@
     </dxf>
   </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2337,17 +2350,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:BK67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="AC62" sqref="AC62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL30" workbookViewId="0">
+      <selection activeCell="AM49" sqref="AM49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85185185185185" defaultRowHeight="13.8"/>
   <cols>
     <col min="37" max="37" width="32.4259259259259" customWidth="1"/>
     <col min="38" max="38" width="59.1111111111111" customWidth="1"/>
-    <col min="39" max="39" width="22.1111111111111" customWidth="1"/>
+    <col min="39" max="39" width="115" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:37">
@@ -3383,7 +3396,7 @@
       <c r="AK34" s="68"/>
       <c r="AL34" s="69"/>
     </row>
-    <row r="35" spans="2:39">
+    <row r="35" spans="2:63">
       <c r="B35" t="s">
         <v>52</v>
       </c>
@@ -3393,7 +3406,8 @@
       <c r="AL35" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AM35" t="s">
+      <c r="AM35"/>
+      <c r="BK35" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3502,7 +3516,7 @@
       <c r="AK47" s="68"/>
       <c r="AL47" s="69"/>
     </row>
-    <row r="48" spans="3:38">
+    <row r="48" ht="27.6" spans="3:39">
       <c r="C48" s="25" t="s">
         <v>68</v>
       </c>
@@ -3512,24 +3526,30 @@
       <c r="G48" s="30"/>
       <c r="AK48" s="68"/>
       <c r="AL48" s="69"/>
-    </row>
-    <row r="49" spans="3:38">
+      <c r="AM48" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" ht="41.4" spans="3:39">
       <c r="C49" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G49" s="30"/>
       <c r="AK49" s="68"/>
       <c r="AL49" s="69"/>
+      <c r="AM49" s="72" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="50" spans="3:38">
       <c r="C50" s="25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G50" s="30"/>
       <c r="AK50" s="68"/>
@@ -3544,7 +3564,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -3589,7 +3609,7 @@
     </row>
     <row r="54" ht="14.55" spans="2:38">
       <c r="B54" s="31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
@@ -3602,7 +3622,7 @@
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK55" s="68" t="s">
         <v>42</v>
@@ -3614,7 +3634,7 @@
         <v>35</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
@@ -3653,7 +3673,7 @@
         <v>42</v>
       </c>
       <c r="AL56" s="69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:38">
@@ -3699,7 +3719,7 @@
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
@@ -3780,7 +3800,7 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK60" s="68"/>
       <c r="AL60" s="69"/>
@@ -3788,21 +3808,21 @@
     <row r="61" ht="27.6" spans="2:39">
       <c r="B61" s="25"/>
       <c r="C61" s="103" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AK61" s="68" t="s">
         <v>48</v>
       </c>
       <c r="AL61" s="70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AM61" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="3:38">
       <c r="C62" s="103" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AK62" s="68"/>
       <c r="AL62" s="69"/>
@@ -3821,12 +3841,12 @@
     </row>
     <row r="66" spans="34:38">
       <c r="AH66" s="75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI66" s="75"/>
       <c r="AJ66" s="75"/>
       <c r="AK66" s="68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AL66" s="68">
         <f>COUNTIF(AK2:AK65,"Y")</f>
@@ -3874,7 +3894,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AK1" r:id="rId1" display="https://github.com/windsora1998/CoffeShopManagement/tree/master/training/Vy"/>
+    <hyperlink ref="AK1" r:id="rId3" display="https://github.com/windsora1998/CoffeShopManagement/tree/master/training/Vy"/>
   </hyperlinks>
   <pageMargins left="0.511805555555556" right="0.313888888888889" top="0.393055555555556" bottom="0.313888888888889" header="0.15625" footer="0.15625"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -3882,5 +3902,7 @@
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>